--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.26479713424443</v>
+        <v>4.014549333333334</v>
       </c>
       <c r="H2">
-        <v>3.26479713424443</v>
+        <v>12.043648</v>
       </c>
       <c r="I2">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="J2">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.96777965441749</v>
+        <v>7.563084333333332</v>
       </c>
       <c r="N2">
-        <v>6.96777965441749</v>
+        <v>22.689253</v>
       </c>
       <c r="O2">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="P2">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="Q2">
-        <v>22.74838704778887</v>
+        <v>30.36237516832711</v>
       </c>
       <c r="R2">
-        <v>22.74838704778887</v>
+        <v>273.261376514944</v>
       </c>
       <c r="S2">
-        <v>0.000853058982030746</v>
+        <v>0.001023655482707103</v>
       </c>
       <c r="T2">
-        <v>0.000853058982030746</v>
+        <v>0.001023655482707103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.26479713424443</v>
+        <v>4.014549333333334</v>
       </c>
       <c r="H3">
-        <v>3.26479713424443</v>
+        <v>12.043648</v>
       </c>
       <c r="I3">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="J3">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.317805786843619</v>
+        <v>9.320192666666665</v>
       </c>
       <c r="N3">
-        <v>9.317805786843619</v>
+        <v>27.960578</v>
       </c>
       <c r="O3">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="P3">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="Q3">
-        <v>30.42074563033322</v>
+        <v>37.41637325650489</v>
       </c>
       <c r="R3">
-        <v>30.42074563033322</v>
+        <v>336.747359308544</v>
       </c>
       <c r="S3">
-        <v>0.001140770563007926</v>
+        <v>0.001261478241234279</v>
       </c>
       <c r="T3">
-        <v>0.001140770563007926</v>
+        <v>0.00126147824123428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26479713424443</v>
+        <v>4.014549333333334</v>
       </c>
       <c r="H4">
-        <v>3.26479713424443</v>
+        <v>12.043648</v>
       </c>
       <c r="I4">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="J4">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.66685706707461</v>
+        <v>1.689863</v>
       </c>
       <c r="N4">
-        <v>1.66685706707461</v>
+        <v>5.069589000000001</v>
       </c>
       <c r="O4">
-        <v>0.07022338662138748</v>
+        <v>0.06543305674977339</v>
       </c>
       <c r="P4">
-        <v>0.07022338662138748</v>
+        <v>0.0654330567497734</v>
       </c>
       <c r="Q4">
-        <v>5.441950175780262</v>
+        <v>6.784038380074668</v>
       </c>
       <c r="R4">
-        <v>5.441950175780262</v>
+        <v>61.05634542067201</v>
       </c>
       <c r="S4">
-        <v>0.0002040718081444979</v>
+        <v>0.0002287211736288373</v>
       </c>
       <c r="T4">
-        <v>0.0002040718081444979</v>
+        <v>0.0002287211736288374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26479713424443</v>
+        <v>4.014549333333334</v>
       </c>
       <c r="H5">
-        <v>3.26479713424443</v>
+        <v>12.043648</v>
       </c>
       <c r="I5">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="J5">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.93241536696239</v>
+        <v>5.352220666666667</v>
       </c>
       <c r="N5">
-        <v>3.93241536696239</v>
+        <v>16.056662</v>
       </c>
       <c r="O5">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="P5">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="Q5">
-        <v>12.83853842071757</v>
+        <v>21.48675390921956</v>
       </c>
       <c r="R5">
-        <v>12.83853842071757</v>
+        <v>193.380785182976</v>
       </c>
       <c r="S5">
-        <v>0.0004814420685269852</v>
+        <v>0.0007244174186904609</v>
       </c>
       <c r="T5">
-        <v>0.0004814420685269852</v>
+        <v>0.000724417418690461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.26479713424443</v>
+        <v>4.014549333333334</v>
       </c>
       <c r="H6">
-        <v>3.26479713424443</v>
+        <v>12.043648</v>
       </c>
       <c r="I6">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="J6">
-        <v>0.002906037688623024</v>
+        <v>0.003495498834839769</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.85163714824076</v>
+        <v>1.900469333333333</v>
       </c>
       <c r="N6">
-        <v>1.85163714824076</v>
+        <v>5.701407999999999</v>
       </c>
       <c r="O6">
-        <v>0.07800802714994524</v>
+        <v>0.07358792857125339</v>
       </c>
       <c r="P6">
-        <v>0.07800802714994524</v>
+        <v>0.0735879285712534</v>
       </c>
       <c r="Q6">
-        <v>6.045219655236962</v>
+        <v>7.629527895153777</v>
       </c>
       <c r="R6">
-        <v>6.045219655236962</v>
+        <v>68.665751056384</v>
       </c>
       <c r="S6">
-        <v>0.000226694266912869</v>
+        <v>0.0002572265185790884</v>
       </c>
       <c r="T6">
-        <v>0.000226694266912869</v>
+        <v>0.0002572265185790884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.17558060508856</v>
+        <v>6.196698333333334</v>
       </c>
       <c r="H7">
-        <v>6.17558060508856</v>
+        <v>18.590095</v>
       </c>
       <c r="I7">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="J7">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.96777965441749</v>
+        <v>7.563084333333332</v>
       </c>
       <c r="N7">
-        <v>6.96777965441749</v>
+        <v>22.689253</v>
       </c>
       <c r="O7">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="P7">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="Q7">
-        <v>43.03008489435132</v>
+        <v>46.86615208322611</v>
       </c>
       <c r="R7">
-        <v>43.03008489435132</v>
+        <v>421.795368749035</v>
       </c>
       <c r="S7">
-        <v>0.001613617718898441</v>
+        <v>0.0015800738007949</v>
       </c>
       <c r="T7">
-        <v>0.001613617718898441</v>
+        <v>0.0015800738007949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.17558060508856</v>
+        <v>6.196698333333334</v>
       </c>
       <c r="H8">
-        <v>6.17558060508856</v>
+        <v>18.590095</v>
       </c>
       <c r="I8">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="J8">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.317805786843619</v>
+        <v>9.320192666666665</v>
       </c>
       <c r="N8">
-        <v>9.317805786843619</v>
+        <v>27.960578</v>
       </c>
       <c r="O8">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="P8">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="Q8">
-        <v>57.54286069921341</v>
+        <v>57.75442236387889</v>
       </c>
       <c r="R8">
-        <v>57.54286069921341</v>
+        <v>519.78980127491</v>
       </c>
       <c r="S8">
-        <v>0.002157843282167088</v>
+        <v>0.001947167531380705</v>
       </c>
       <c r="T8">
-        <v>0.002157843282167088</v>
+        <v>0.001947167531380706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.17558060508856</v>
+        <v>6.196698333333334</v>
       </c>
       <c r="H9">
-        <v>6.17558060508856</v>
+        <v>18.590095</v>
       </c>
       <c r="I9">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="J9">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.66685706707461</v>
+        <v>1.689863</v>
       </c>
       <c r="N9">
-        <v>1.66685706707461</v>
+        <v>5.069589000000001</v>
       </c>
       <c r="O9">
-        <v>0.07022338662138748</v>
+        <v>0.06543305674977339</v>
       </c>
       <c r="P9">
-        <v>0.07022338662138748</v>
+        <v>0.0654330567497734</v>
       </c>
       <c r="Q9">
-        <v>10.29381017488076</v>
+        <v>10.47157123566167</v>
       </c>
       <c r="R9">
-        <v>10.29381017488076</v>
+        <v>94.24414112095502</v>
       </c>
       <c r="S9">
-        <v>0.0003860153781696382</v>
+        <v>0.0003530448869206058</v>
       </c>
       <c r="T9">
-        <v>0.0003860153781696382</v>
+        <v>0.000353044886920606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.17558060508856</v>
+        <v>6.196698333333334</v>
       </c>
       <c r="H10">
-        <v>6.17558060508856</v>
+        <v>18.590095</v>
       </c>
       <c r="I10">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="J10">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.93241536696239</v>
+        <v>5.352220666666667</v>
       </c>
       <c r="N10">
-        <v>3.93241536696239</v>
+        <v>16.056662</v>
       </c>
       <c r="O10">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="P10">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="Q10">
-        <v>24.28494807136515</v>
+        <v>33.16609688476556</v>
       </c>
       <c r="R10">
-        <v>24.28494807136515</v>
+        <v>298.49487196289</v>
       </c>
       <c r="S10">
-        <v>0.0009106796467331038</v>
+        <v>0.00111818185263389</v>
       </c>
       <c r="T10">
-        <v>0.0009106796467331038</v>
+        <v>0.00111818185263389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.17558060508856</v>
+        <v>6.196698333333334</v>
       </c>
       <c r="H11">
-        <v>6.17558060508856</v>
+        <v>18.590095</v>
       </c>
       <c r="I11">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="J11">
-        <v>0.00549696328732844</v>
+        <v>0.005395512672909455</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.85163714824076</v>
+        <v>1.900469333333333</v>
       </c>
       <c r="N11">
-        <v>1.85163714824076</v>
+        <v>5.701407999999999</v>
       </c>
       <c r="O11">
-        <v>0.07800802714994524</v>
+        <v>0.07358792857125339</v>
       </c>
       <c r="P11">
-        <v>0.07800802714994524</v>
+        <v>0.0735879285712534</v>
       </c>
       <c r="Q11">
-        <v>11.43493446033713</v>
+        <v>11.77663515041778</v>
       </c>
       <c r="R11">
-        <v>11.43493446033713</v>
+        <v>105.98971635376</v>
       </c>
       <c r="S11">
-        <v>0.0004288072613601692</v>
+        <v>0.0003970446011793534</v>
       </c>
       <c r="T11">
-        <v>0.0004288072613601692</v>
+        <v>0.0003970446011793535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>688.92156253103</v>
+        <v>690.6165566666667</v>
       </c>
       <c r="H12">
-        <v>688.92156253103</v>
+        <v>2071.84967</v>
       </c>
       <c r="I12">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="J12">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.96777965441749</v>
+        <v>7.563084333333332</v>
       </c>
       <c r="N12">
-        <v>6.96777965441749</v>
+        <v>22.689253</v>
       </c>
       <c r="O12">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="P12">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="Q12">
-        <v>4800.253646893218</v>
+        <v>5223.191260066279</v>
       </c>
       <c r="R12">
-        <v>4800.253646893218</v>
+        <v>47008.72134059651</v>
       </c>
       <c r="S12">
-        <v>0.1800083443676999</v>
+        <v>0.1760978296642679</v>
       </c>
       <c r="T12">
-        <v>0.1800083443676999</v>
+        <v>0.176097829664268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>688.92156253103</v>
+        <v>690.6165566666667</v>
       </c>
       <c r="H13">
-        <v>688.92156253103</v>
+        <v>2071.84967</v>
       </c>
       <c r="I13">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="J13">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.317805786843619</v>
+        <v>9.320192666666665</v>
       </c>
       <c r="N13">
-        <v>9.317805786843619</v>
+        <v>27.960578</v>
       </c>
       <c r="O13">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="P13">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="Q13">
-        <v>6419.237322032979</v>
+        <v>6436.679366923251</v>
       </c>
       <c r="R13">
-        <v>6419.237322032979</v>
+        <v>57930.11430230926</v>
       </c>
       <c r="S13">
-        <v>0.2407198384590299</v>
+        <v>0.2170101017410524</v>
       </c>
       <c r="T13">
-        <v>0.2407198384590299</v>
+        <v>0.2170101017410524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>688.92156253103</v>
+        <v>690.6165566666667</v>
       </c>
       <c r="H14">
-        <v>688.92156253103</v>
+        <v>2071.84967</v>
       </c>
       <c r="I14">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="J14">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.66685706707461</v>
+        <v>1.689863</v>
       </c>
       <c r="N14">
-        <v>1.66685706707461</v>
+        <v>5.069589000000001</v>
       </c>
       <c r="O14">
-        <v>0.07022338662138748</v>
+        <v>0.06543305674977339</v>
       </c>
       <c r="P14">
-        <v>0.07022338662138748</v>
+        <v>0.0654330567497734</v>
       </c>
       <c r="Q14">
-        <v>1148.33377516493</v>
+        <v>1167.047366298403</v>
       </c>
       <c r="R14">
-        <v>1148.33377516493</v>
+        <v>10503.42629668563</v>
       </c>
       <c r="S14">
-        <v>0.04306223730130067</v>
+        <v>0.03934654085746439</v>
       </c>
       <c r="T14">
-        <v>0.04306223730130067</v>
+        <v>0.0393465408574644</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>688.92156253103</v>
+        <v>690.6165566666667</v>
       </c>
       <c r="H15">
-        <v>688.92156253103</v>
+        <v>2071.84967</v>
       </c>
       <c r="I15">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="J15">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.93241536696239</v>
+        <v>5.352220666666667</v>
       </c>
       <c r="N15">
-        <v>3.93241536696239</v>
+        <v>16.056662</v>
       </c>
       <c r="O15">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="P15">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="Q15">
-        <v>2709.125739128763</v>
+        <v>3696.332207333505</v>
       </c>
       <c r="R15">
-        <v>2709.125739128763</v>
+        <v>33266.98986600154</v>
       </c>
       <c r="S15">
-        <v>0.101591556375383</v>
+        <v>0.1246203799593016</v>
       </c>
       <c r="T15">
-        <v>0.101591556375383</v>
+        <v>0.1246203799593016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>688.92156253103</v>
+        <v>690.6165566666667</v>
       </c>
       <c r="H16">
-        <v>688.92156253103</v>
+        <v>2071.84967</v>
       </c>
       <c r="I16">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="J16">
-        <v>0.6132178946804807</v>
+        <v>0.6013251223755592</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.85163714824076</v>
+        <v>1.900469333333333</v>
       </c>
       <c r="N16">
-        <v>1.85163714824076</v>
+        <v>5.701407999999999</v>
       </c>
       <c r="O16">
-        <v>0.07800802714994524</v>
+        <v>0.07358792857125339</v>
       </c>
       <c r="P16">
-        <v>0.07800802714994524</v>
+        <v>0.0735879285712534</v>
       </c>
       <c r="Q16">
-        <v>1275.632757406525</v>
+        <v>1312.495587037262</v>
       </c>
       <c r="R16">
-        <v>1275.632757406525</v>
+        <v>11812.46028333536</v>
       </c>
       <c r="S16">
-        <v>0.04783591817706721</v>
+        <v>0.04425027015347285</v>
       </c>
       <c r="T16">
-        <v>0.04783591817706721</v>
+        <v>0.04425027015347287</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>406.861958373767</v>
+        <v>426.5293173333333</v>
       </c>
       <c r="H17">
-        <v>406.861958373767</v>
+        <v>1279.587952</v>
       </c>
       <c r="I17">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="J17">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.96777965441749</v>
+        <v>7.563084333333332</v>
       </c>
       <c r="N17">
-        <v>6.96777965441749</v>
+        <v>22.689253</v>
       </c>
       <c r="O17">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="P17">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="Q17">
-        <v>2834.924475713189</v>
+        <v>3225.877197631094</v>
       </c>
       <c r="R17">
-        <v>2834.924475713189</v>
+        <v>29032.89477867985</v>
       </c>
       <c r="S17">
-        <v>0.1063089784038558</v>
+        <v>0.1087591751826982</v>
       </c>
       <c r="T17">
-        <v>0.1063089784038558</v>
+        <v>0.1087591751826982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>406.861958373767</v>
+        <v>426.5293173333333</v>
       </c>
       <c r="H18">
-        <v>406.861958373767</v>
+        <v>1279.587952</v>
       </c>
       <c r="I18">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="J18">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.317805786843619</v>
+        <v>9.320192666666665</v>
       </c>
       <c r="N18">
-        <v>9.317805786843619</v>
+        <v>27.960578</v>
       </c>
       <c r="O18">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="P18">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="Q18">
-        <v>3791.060710181614</v>
+        <v>3975.335415528472</v>
       </c>
       <c r="R18">
-        <v>3791.060710181614</v>
+        <v>35778.01873975625</v>
       </c>
       <c r="S18">
-        <v>0.1421638546702425</v>
+        <v>0.1340268628901752</v>
       </c>
       <c r="T18">
-        <v>0.1421638546702425</v>
+        <v>0.1340268628901753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>406.861958373767</v>
+        <v>426.5293173333333</v>
       </c>
       <c r="H19">
-        <v>406.861958373767</v>
+        <v>1279.587952</v>
       </c>
       <c r="I19">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="J19">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.66685706707461</v>
+        <v>1.689863</v>
       </c>
       <c r="N19">
-        <v>1.66685706707461</v>
+        <v>5.069589000000001</v>
       </c>
       <c r="O19">
-        <v>0.07022338662138748</v>
+        <v>0.06543305674977339</v>
       </c>
       <c r="P19">
-        <v>0.07022338662138748</v>
+        <v>0.0654330567497734</v>
       </c>
       <c r="Q19">
-        <v>678.1807306391293</v>
+        <v>720.7761117768586</v>
       </c>
       <c r="R19">
-        <v>678.1807306391293</v>
+        <v>6486.985005991728</v>
       </c>
       <c r="S19">
-        <v>0.02543161246977798</v>
+        <v>0.02430068183184698</v>
       </c>
       <c r="T19">
-        <v>0.02543161246977798</v>
+        <v>0.024300681831847</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>406.861958373767</v>
+        <v>426.5293173333333</v>
       </c>
       <c r="H20">
-        <v>406.861958373767</v>
+        <v>1279.587952</v>
       </c>
       <c r="I20">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="J20">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.93241536696239</v>
+        <v>5.352220666666667</v>
       </c>
       <c r="N20">
-        <v>3.93241536696239</v>
+        <v>16.056662</v>
       </c>
       <c r="O20">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="P20">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="Q20">
-        <v>1599.950217341413</v>
+        <v>2282.879027170691</v>
       </c>
       <c r="R20">
-        <v>1599.950217341413</v>
+        <v>20545.91124453622</v>
       </c>
       <c r="S20">
-        <v>0.05999774405270636</v>
+        <v>0.07696636444167523</v>
       </c>
       <c r="T20">
-        <v>0.05999774405270636</v>
+        <v>0.07696636444167525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>406.861958373767</v>
+        <v>426.5293173333333</v>
       </c>
       <c r="H21">
-        <v>406.861958373767</v>
+        <v>1279.587952</v>
       </c>
       <c r="I21">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="J21">
-        <v>0.3621530332465115</v>
+        <v>0.3713823415705113</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.85163714824076</v>
+        <v>1.900469333333333</v>
       </c>
       <c r="N21">
-        <v>1.85163714824076</v>
+        <v>5.701407999999999</v>
       </c>
       <c r="O21">
-        <v>0.07800802714994524</v>
+        <v>0.07358792857125339</v>
       </c>
       <c r="P21">
-        <v>0.07800802714994524</v>
+        <v>0.0735879285712534</v>
       </c>
       <c r="Q21">
-        <v>753.3607163308527</v>
+        <v>810.6058873596014</v>
       </c>
       <c r="R21">
-        <v>753.3607163308527</v>
+        <v>7295.452986236413</v>
       </c>
       <c r="S21">
-        <v>0.0282508436499289</v>
+        <v>0.02732925722411561</v>
       </c>
       <c r="T21">
-        <v>0.0282508436499289</v>
+        <v>0.02732925722411562</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.2292303451908</v>
+        <v>21.13398733333333</v>
       </c>
       <c r="H22">
-        <v>18.2292303451908</v>
+        <v>63.401962</v>
       </c>
       <c r="I22">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="J22">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.96777965441749</v>
+        <v>7.563084333333332</v>
       </c>
       <c r="N22">
-        <v>6.96777965441749</v>
+        <v>22.689253</v>
       </c>
       <c r="O22">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="P22">
-        <v>0.2935471158445138</v>
+        <v>0.2928496134812834</v>
       </c>
       <c r="Q22">
-        <v>127.0172603149104</v>
+        <v>159.8381285015984</v>
       </c>
       <c r="R22">
-        <v>127.0172603149104</v>
+        <v>1438.543156514386</v>
       </c>
       <c r="S22">
-        <v>0.004763116372028829</v>
+        <v>0.005388879350815248</v>
       </c>
       <c r="T22">
-        <v>0.004763116372028829</v>
+        <v>0.00538887935081525</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.2292303451908</v>
+        <v>21.13398733333333</v>
       </c>
       <c r="H23">
-        <v>18.2292303451908</v>
+        <v>63.401962</v>
       </c>
       <c r="I23">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="J23">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.317805786843619</v>
+        <v>9.320192666666665</v>
       </c>
       <c r="N23">
-        <v>9.317805786843619</v>
+        <v>27.960578</v>
       </c>
       <c r="O23">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="P23">
-        <v>0.392551881716462</v>
+        <v>0.3608864716706749</v>
       </c>
       <c r="Q23">
-        <v>169.8564280001241</v>
+        <v>196.9728337615595</v>
       </c>
       <c r="R23">
-        <v>169.8564280001241</v>
+        <v>1772.755503854036</v>
       </c>
       <c r="S23">
-        <v>0.006369574742014449</v>
+        <v>0.006640861266832325</v>
       </c>
       <c r="T23">
-        <v>0.006369574742014449</v>
+        <v>0.006640861266832327</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.2292303451908</v>
+        <v>21.13398733333333</v>
       </c>
       <c r="H24">
-        <v>18.2292303451908</v>
+        <v>63.401962</v>
       </c>
       <c r="I24">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="J24">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.66685706707461</v>
+        <v>1.689863</v>
       </c>
       <c r="N24">
-        <v>1.66685706707461</v>
+        <v>5.069589000000001</v>
       </c>
       <c r="O24">
-        <v>0.07022338662138748</v>
+        <v>0.06543305674977339</v>
       </c>
       <c r="P24">
-        <v>0.07022338662138748</v>
+        <v>0.0654330567497734</v>
       </c>
       <c r="Q24">
-        <v>30.38552142821221</v>
+        <v>35.71354323706867</v>
       </c>
       <c r="R24">
-        <v>30.38552142821221</v>
+        <v>321.421889133618</v>
       </c>
       <c r="S24">
-        <v>0.001139449663994688</v>
+        <v>0.001204067999912563</v>
       </c>
       <c r="T24">
-        <v>0.001139449663994688</v>
+        <v>0.001204067999912564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.2292303451908</v>
+        <v>21.13398733333333</v>
       </c>
       <c r="H25">
-        <v>18.2292303451908</v>
+        <v>63.401962</v>
       </c>
       <c r="I25">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="J25">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.93241536696239</v>
+        <v>5.352220666666667</v>
       </c>
       <c r="N25">
-        <v>3.93241536696239</v>
+        <v>16.056662</v>
       </c>
       <c r="O25">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="P25">
-        <v>0.1656695886676915</v>
+        <v>0.2072429295270149</v>
       </c>
       <c r="Q25">
-        <v>71.68490553732542</v>
+        <v>113.1137637745382</v>
       </c>
       <c r="R25">
-        <v>71.68490553732542</v>
+        <v>1018.023873970844</v>
       </c>
       <c r="S25">
-        <v>0.002688166524341993</v>
+        <v>0.003813585854713678</v>
       </c>
       <c r="T25">
-        <v>0.002688166524341993</v>
+        <v>0.003813585854713679</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.2292303451908</v>
+        <v>21.13398733333333</v>
       </c>
       <c r="H26">
-        <v>18.2292303451908</v>
+        <v>63.401962</v>
       </c>
       <c r="I26">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="J26">
-        <v>0.01622607109705605</v>
+        <v>0.0184015245461803</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.85163714824076</v>
+        <v>1.900469333333333</v>
       </c>
       <c r="N26">
-        <v>1.85163714824076</v>
+        <v>5.701407999999999</v>
       </c>
       <c r="O26">
-        <v>0.07800802714994524</v>
+        <v>0.07358792857125339</v>
       </c>
       <c r="P26">
-        <v>0.07800802714994524</v>
+        <v>0.0735879285712534</v>
       </c>
       <c r="Q26">
-        <v>33.75392009099302</v>
+        <v>40.1644948180551</v>
       </c>
       <c r="R26">
-        <v>33.75392009099302</v>
+        <v>361.480453362496</v>
       </c>
       <c r="S26">
-        <v>0.00126576379467609</v>
+        <v>0.001354130073906482</v>
       </c>
       <c r="T26">
-        <v>0.00126576379467609</v>
+        <v>0.001354130073906482</v>
       </c>
     </row>
   </sheetData>
